--- a/templates/AutomationOrg/RSTK-9518-Rework Work Order.xlsx
+++ b/templates/AutomationOrg/RSTK-9518-Rework Work Order.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\AutomationOrg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\EventDemo\Parallel-Execution\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE44FF7-9AE6-4036-9959-8EA84D518317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3CFBD7-D46F-42C1-A681-818AE360E707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create WO" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="81">
   <si>
     <t>Site</t>
   </si>
@@ -621,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A2:XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -947,10 +947,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BAA8AA5-AAA5-4969-B3C7-F881B91DE17C}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1023,22 +1023,22 @@
         <v>76</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="5">
-        <v>44537</v>
-      </c>
       <c r="E2">
         <v>8</v>
       </c>
       <c r="G2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" t="b">
-        <v>1</v>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
       </c>
       <c r="N2" t="s">
         <v>22</v>
@@ -1051,9 +1051,6 @@
       <c r="A3" t="s">
         <v>76</v>
       </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
       <c r="C3" s="4" t="s">
         <v>19</v>
       </c>
@@ -1061,13 +1058,10 @@
         <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
-      </c>
-      <c r="M3" t="s">
-        <v>20</v>
       </c>
       <c r="N3" t="s">
         <v>22</v>
@@ -1078,22 +1072,25 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="D4" s="5">
+        <v>44537</v>
+      </c>
       <c r="E4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>3</v>
+        <v>25</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
       </c>
       <c r="N4" t="s">
         <v>22</v>
@@ -1104,22 +1101,25 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
-      <c r="L5">
-        <v>2</v>
+      <c r="M5" t="s">
+        <v>20</v>
       </c>
       <c r="N5" t="s">
         <v>22</v>
@@ -1132,23 +1132,20 @@
       <c r="A6" t="s">
         <v>75</v>
       </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
       <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="5">
-        <v>44537</v>
-      </c>
       <c r="E6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" t="b">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
       </c>
       <c r="N6" t="s">
         <v>22</v>
@@ -1161,23 +1158,20 @@
       <c r="A7" t="s">
         <v>75</v>
       </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
       <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
-      <c r="M7" t="s">
-        <v>20</v>
+      <c r="L7">
+        <v>2</v>
       </c>
       <c r="N7" t="s">
         <v>22</v>
@@ -1188,22 +1182,25 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>78</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="D8" s="5">
+        <v>44537</v>
+      </c>
       <c r="E8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>3</v>
+        <v>25</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
       </c>
       <c r="N8" t="s">
         <v>22</v>
@@ -1214,22 +1211,25 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>78</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
       </c>
-      <c r="L9">
-        <v>2</v>
+      <c r="M9" t="s">
+        <v>20</v>
       </c>
       <c r="N9" t="s">
         <v>22</v>
@@ -1242,23 +1242,20 @@
       <c r="A10" t="s">
         <v>78</v>
       </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
       <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="5">
-        <v>44537</v>
-      </c>
       <c r="E10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" t="b">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
       </c>
       <c r="N10" t="s">
         <v>22</v>
@@ -1271,23 +1268,20 @@
       <c r="A11" t="s">
         <v>78</v>
       </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
       <c r="C11" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
       </c>
-      <c r="M11" t="s">
-        <v>20</v>
+      <c r="L11">
+        <v>2</v>
       </c>
       <c r="N11" t="s">
         <v>22</v>
@@ -1298,22 +1292,25 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="D12" s="5">
+        <v>44537</v>
+      </c>
       <c r="E12">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>3</v>
+        <v>25</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
       </c>
       <c r="N12" t="s">
         <v>22</v>
@@ -1324,22 +1321,25 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I13" t="b">
         <v>1</v>
       </c>
-      <c r="L13">
-        <v>2</v>
+      <c r="M13" t="s">
+        <v>20</v>
       </c>
       <c r="N13" t="s">
         <v>22</v>
@@ -1352,23 +1352,20 @@
       <c r="A14" t="s">
         <v>77</v>
       </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
       <c r="C14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="5">
-        <v>44537</v>
-      </c>
       <c r="E14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" t="b">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
       </c>
       <c r="N14" t="s">
         <v>22</v>
@@ -1381,80 +1378,25 @@
       <c r="A15" t="s">
         <v>77</v>
       </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
       <c r="C15" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
       </c>
-      <c r="M15" t="s">
-        <v>20</v>
+      <c r="L15">
+        <v>2</v>
       </c>
       <c r="N15" t="s">
         <v>22</v>
       </c>
       <c r="O15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16">
-        <v>10</v>
-      </c>
-      <c r="G16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>3</v>
-      </c>
-      <c r="N16" t="s">
-        <v>22</v>
-      </c>
-      <c r="O16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17">
-        <v>10</v>
-      </c>
-      <c r="G17" t="s">
-        <v>27</v>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>2</v>
-      </c>
-      <c r="N17" t="s">
-        <v>22</v>
-      </c>
-      <c r="O17" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1467,10 +1409,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F4B46C-917D-4769-9EED-CC4369AB85E4}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1533,7 +1475,7 @@
         <v>39</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H2" t="s">
         <v>79</v>
@@ -1547,7 +1489,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -1559,7 +1501,7 @@
         <v>39</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3" t="s">
         <v>79</v>
@@ -1573,7 +1515,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -1599,7 +1541,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -1611,7 +1553,7 @@
         <v>39</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H5" t="s">
         <v>79</v>
@@ -1625,7 +1567,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -1637,7 +1579,7 @@
         <v>39</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H6" t="s">
         <v>79</v>
@@ -1646,58 +1588,6 @@
         <v>36</v>
       </c>
       <c r="J6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-      <c r="H7" t="s">
-        <v>79</v>
-      </c>
-      <c r="I7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-      <c r="H8" t="s">
-        <v>79</v>
-      </c>
-      <c r="I8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1711,7 +1601,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="A1:D6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1798,10 +1688,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F64F68B-8B51-425D-AD6F-D9D782FBD866}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="A1:D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1869,23 +1759,23 @@
         <v>76</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1893,7 +1783,7 @@
         <v>78</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1901,23 +1791,23 @@
         <v>78</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1925,7 +1815,7 @@
         <v>77</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1933,22 +1823,6 @@
         <v>77</v>
       </c>
       <c r="D15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17">
         <v>10</v>
       </c>
     </row>
